--- a/doc/ue_ios_metal.xlsx
+++ b/doc/ue_ios_metal.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9188E90-4D60-4635-B1EE-5F362331219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98F1DB-C6E6-431C-A1C8-E5B4DCFCA98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="锁帧" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>FMetalDeviceContext::FMetalDeviceContext(mtlpp::Device MetalDevice, uint32 InDeviceIndex, FMetalCommandQueue* Queue)</t>
   </si>
@@ -100,6 +101,13 @@
   </si>
   <si>
     <t>强制等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTLBinaryArchive</t>
+  </si>
+  <si>
+    <t>自己创建二进制，而不是用functions.data（因为会丢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +139,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF1D1D1F"/>
+      <name val="Var(--typography-html-font,&quot;SF"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,9 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,7 +457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -450,43 +468,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EC92D0-894A-46EC-BE4D-4B537BDCCA8D}">
   <dimension ref="B4:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="D6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -494,114 +512,143 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="F17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="F19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="F20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="F21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="F22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="G23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="F24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="E25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="D32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="E35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="E36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DB8CB6-09FC-4254-8325-80676D7B899A}">
+  <dimension ref="B5:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="65.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="180">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
